--- a/data/trans_orig/P16A17-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A17-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1587138-B043-431D-A26F-AD5460633D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55FE1283-FC17-4B7B-8BC2-2E789380B86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{81CA6F98-3F24-4704-9723-17913E8BD9EA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4765A5BB-488D-4132-AE0C-77823C4305DB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="166">
   <si>
     <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2007 (Tasa respuesta: 50,59%)</t>
   </si>
@@ -83,7 +83,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,72%</t>
+    <t>2,74%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,7 +92,7 @@
     <t>99,22%</t>
   </si>
   <si>
-    <t>97,28%</t>
+    <t>97,26%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -128,13 +128,13 @@
     <t>0,3%</t>
   </si>
   <si>
-    <t>2,04%</t>
+    <t>1,5%</t>
   </si>
   <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>97,96%</t>
+    <t>98,5%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -146,367 +146,397 @@
     <t>0,25%</t>
   </si>
   <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2012 (Tasa respuesta: 50,36%)</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
     <t>2,44%</t>
   </si>
   <si>
-    <t>99,04%</t>
+    <t>99,31%</t>
   </si>
   <si>
     <t>97,56%</t>
   </si>
   <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,48%</t>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2015 (Tasa respuesta: 50,81%)</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2023 (Tasa respuesta: 61,24%)</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
   </si>
   <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
+    <t>1,31%</t>
   </si>
   <si>
     <t>99,63%</t>
   </si>
   <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
   </si>
   <si>
     <t>0,5%</t>
   </si>
   <si>
+    <t>0,2%</t>
+  </si>
+  <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>99,29%</t>
+    <t>99,5%</t>
   </si>
   <si>
     <t>98,91%</t>
   </si>
   <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2012 (Tasa respuesta: 50,36%)</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2015 (Tasa respuesta: 50,81%)</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2023 (Tasa respuesta: 61,24%)</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
   </si>
 </sst>
 </file>
@@ -918,7 +948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C13E23-E213-4FC8-BF3C-2299A3055EE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1BFBE7A-0336-4BE8-AEEE-AAE0C7ACDBFD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2395,7 +2425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4641D135-EB9A-4919-916A-46142B148B3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F04A6F-5C82-4EC5-B417-D7B8660415D1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2821,7 +2851,7 @@
         <v>75</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>76</v>
@@ -2836,7 +2866,7 @@
         <v>75</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>76</v>
@@ -2873,7 +2903,7 @@
         <v>78</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M11" s="7">
         <v>312</v>
@@ -2888,7 +2918,7 @@
         <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2970,10 +3000,10 @@
         <v>79</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -2985,10 +3015,10 @@
         <v>79</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3013,31 +3043,31 @@
         <v>615</v>
       </c>
       <c r="I14" s="7">
-        <v>663019</v>
+        <v>663020</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="M14" s="7">
         <v>615</v>
       </c>
       <c r="N14" s="7">
-        <v>663019</v>
+        <v>663020</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,7 +3092,7 @@
         <v>619</v>
       </c>
       <c r="I15" s="7">
-        <v>667324</v>
+        <v>667325</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3077,7 +3107,7 @@
         <v>619</v>
       </c>
       <c r="N15" s="7">
-        <v>667324</v>
+        <v>667325</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3119,10 +3149,10 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3134,10 +3164,10 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3168,7 +3198,7 @@
         <v>18</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -3183,7 +3213,7 @@
         <v>18</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -3265,13 +3295,13 @@
         <v>1918</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -3280,13 +3310,13 @@
         <v>1918</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,10 +3344,10 @@
         <v>277222</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>18</v>
@@ -3329,10 +3359,10 @@
         <v>277222</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>18</v>
@@ -3414,13 +3444,13 @@
         <v>4000</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -3429,13 +3459,13 @@
         <v>4000</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3463,13 +3493,13 @@
         <v>687756</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="M23" s="7">
         <v>631</v>
@@ -3478,13 +3508,13 @@
         <v>687756</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,10 +3596,10 @@
         <v>79</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -3581,10 +3611,10 @@
         <v>79</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,13 +3642,13 @@
         <v>815203</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="M26" s="7">
         <v>749</v>
@@ -3627,13 +3657,13 @@
         <v>815203</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3712,13 +3742,13 @@
         <v>21690</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="M28" s="7">
         <v>19</v>
@@ -3727,13 +3757,13 @@
         <v>21690</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3761,13 +3791,13 @@
         <v>3514246</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="M29" s="7">
         <v>3258</v>
@@ -3776,13 +3806,13 @@
         <v>3514246</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3860,7 +3890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581197AC-FCB3-44FD-AFFD-4E287D3E3847}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265A87AF-D6E2-4A7B-A038-C78C057123FE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3877,7 +3907,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3997,13 +4027,13 @@
         <v>1014</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4012,13 +4042,13 @@
         <v>1014</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,10 +4076,10 @@
         <v>287689</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>18</v>
@@ -4061,10 +4091,10 @@
         <v>287689</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>18</v>
@@ -4146,13 +4176,13 @@
         <v>4244</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -4161,13 +4191,13 @@
         <v>4244</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4225,13 @@
         <v>518840</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M8" s="7">
         <v>480</v>
@@ -4210,13 +4240,13 @@
         <v>518840</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,10 +4328,10 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4313,10 +4343,10 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4347,7 +4377,7 @@
         <v>18</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -4362,7 +4392,7 @@
         <v>18</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -4447,10 +4477,10 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4462,10 +4492,10 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4496,7 +4526,7 @@
         <v>18</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -4511,7 +4541,7 @@
         <v>18</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -4596,10 +4626,10 @@
         <v>23</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -4611,10 +4641,10 @@
         <v>23</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4645,10 +4675,10 @@
         <v>25</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>219</v>
@@ -4660,10 +4690,10 @@
         <v>25</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4745,10 +4775,10 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4760,10 +4790,10 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4794,7 +4824,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -4809,7 +4839,7 @@
         <v>18</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -4891,13 +4921,13 @@
         <v>5869</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -4906,13 +4936,13 @@
         <v>5869</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4940,13 +4970,13 @@
         <v>685425</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M23" s="7">
         <v>641</v>
@@ -4955,13 +4985,13 @@
         <v>685425</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,13 +5070,13 @@
         <v>3304</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -5055,13 +5085,13 @@
         <v>3304</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5089,13 +5119,13 @@
         <v>822863</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="M26" s="7">
         <v>752</v>
@@ -5104,13 +5134,13 @@
         <v>822863</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5189,13 +5219,13 @@
         <v>18088</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M28" s="7">
         <v>17</v>
@@ -5204,13 +5234,13 @@
         <v>18088</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,13 +5268,13 @@
         <v>3526454</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="M29" s="7">
         <v>3321</v>
@@ -5253,13 +5283,13 @@
         <v>3526454</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>138</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,7 +5367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A3447A-28E7-401C-A8F8-5C3192CE1AAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE364EA-E9D7-4351-BCD8-B92652D64D05}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5354,7 +5384,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5474,13 +5504,13 @@
         <v>1440</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -5489,13 +5519,13 @@
         <v>1440</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,13 +5553,13 @@
         <v>269963</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>535</v>
@@ -5538,13 +5568,13 @@
         <v>269963</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5623,13 +5653,13 @@
         <v>2463</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -5638,13 +5668,13 @@
         <v>2463</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5672,13 +5702,13 @@
         <v>549151</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M8" s="7">
         <v>709</v>
@@ -5687,13 +5717,13 @@
         <v>549151</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5772,13 +5802,13 @@
         <v>1889</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>146</v>
+        <v>29</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -5787,13 +5817,13 @@
         <v>1889</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>146</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5821,13 +5851,13 @@
         <v>370724</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>532</v>
@@ -5836,13 +5866,13 @@
         <v>370724</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5921,13 +5951,13 @@
         <v>673</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -5936,13 +5966,13 @@
         <v>673</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5970,10 +6000,10 @@
         <v>427210</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>18</v>
@@ -5985,10 +6015,10 @@
         <v>427210</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>18</v>
@@ -6070,13 +6100,13 @@
         <v>852</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -6085,13 +6115,13 @@
         <v>852</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,10 +6149,10 @@
         <v>230660</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>50</v>
+        <v>148</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>18</v>
@@ -6134,10 +6164,10 @@
         <v>230660</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>50</v>
+        <v>148</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>18</v>
@@ -6219,13 +6249,13 @@
         <v>663</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -6234,13 +6264,13 @@
         <v>663</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6268,10 +6298,10 @@
         <v>274959</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>18</v>
@@ -6283,10 +6313,10 @@
         <v>274959</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>18</v>
@@ -6368,13 +6398,13 @@
         <v>4650</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -6383,13 +6413,13 @@
         <v>4650</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,13 +6447,13 @@
         <v>799393</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="M23" s="7">
         <v>952</v>
@@ -6432,13 +6462,13 @@
         <v>799393</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6517,13 +6547,13 @@
         <v>4357</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -6532,13 +6562,13 @@
         <v>4357</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>65</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6566,13 +6596,13 @@
         <v>860674</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>67</v>
+        <v>162</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="M26" s="7">
         <v>1054</v>
@@ -6581,13 +6611,13 @@
         <v>860674</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>67</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6666,13 +6696,13 @@
         <v>16989</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>28</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="M28" s="7">
         <v>27</v>
@@ -6681,13 +6711,13 @@
         <v>16989</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>28</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6715,10 +6745,10 @@
         <v>3782733</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>30</v>
@@ -6730,10 +6760,10 @@
         <v>3782733</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P16A17-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A17-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55FE1283-FC17-4B7B-8BC2-2E789380B86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92A8DAD4-5490-4475-8A89-CF505E7D1787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4765A5BB-488D-4132-AE0C-77823C4305DB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CE377ABC-A991-4247-99CC-4474DF1358C2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="158">
   <si>
     <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2007 (Tasa respuesta: 50,59%)</t>
   </si>
@@ -83,7 +83,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,74%</t>
+    <t>2,62%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,7 +92,7 @@
     <t>99,22%</t>
   </si>
   <si>
-    <t>97,26%</t>
+    <t>97,38%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -110,220 +110,232 @@
     <t>0,19%</t>
   </si>
   <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
     <t>1,67%</t>
   </si>
   <si>
-    <t>99,38%</t>
+    <t>99,24%</t>
   </si>
   <si>
     <t>98,33%</t>
   </si>
   <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
     <t>Sevilla</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2012 (Tasa respuesta: 50,36%)</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
   </si>
   <si>
     <t>99,85%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2012 (Tasa respuesta: 50,36%)</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
   </si>
   <si>
     <t>99,74%</t>
@@ -332,9 +344,6 @@
     <t>0,61%</t>
   </si>
   <si>
-    <t>0,38%</t>
-  </si>
-  <si>
     <t>0,97%</t>
   </si>
   <si>
@@ -344,37 +353,28 @@
     <t>99,03%</t>
   </si>
   <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2015 (Tasa respuesta: 50,81%)</t>
+    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2016 (Tasa respuesta: 50,81%)</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
     <t>99,65%</t>
   </si>
   <si>
-    <t>97,73%</t>
-  </si>
-  <si>
     <t>0,81%</t>
   </si>
   <si>
     <t>0,21%</t>
   </si>
   <si>
-    <t>1,96%</t>
+    <t>2,07%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>98,04%</t>
+    <t>97,93%</t>
   </si>
   <si>
     <t>99,79%</t>
@@ -389,10 +389,10 @@
     <t>0,4%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
   </si>
   <si>
     <t>99,6%</t>
@@ -410,13 +410,13 @@
     <t>0,31%</t>
   </si>
   <si>
-    <t>1,85%</t>
+    <t>1,88%</t>
   </si>
   <si>
     <t>99,15%</t>
   </si>
   <si>
-    <t>98,15%</t>
+    <t>98,12%</t>
   </si>
   <si>
     <t>99,69%</t>
@@ -425,10 +425,10 @@
     <t>0,13%</t>
   </si>
   <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
   </si>
   <si>
     <t>99,87%</t>
@@ -437,15 +437,9 @@
     <t>0,51%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
     <t>99,49%</t>
   </si>
   <si>
-    <t>99,21%</t>
-  </si>
-  <si>
     <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2023 (Tasa respuesta: 61,24%)</t>
   </si>
   <si>
@@ -479,15 +473,9 @@
     <t>99,86%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>99,63%</t>
-  </si>
-  <si>
     <t>98,69%</t>
   </si>
   <si>
@@ -503,31 +491,19 @@
     <t>98,75%</t>
   </si>
   <si>
-    <t>0,18%</t>
-  </si>
-  <si>
     <t>1,33%</t>
   </si>
   <si>
     <t>98,67%</t>
   </si>
   <si>
-    <t>99,82%</t>
-  </si>
-  <si>
     <t>0,5%</t>
   </si>
   <si>
     <t>0,2%</t>
   </si>
   <si>
-    <t>1,09%</t>
-  </si>
-  <si>
     <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
   </si>
   <si>
     <t>99,8%</t>
@@ -948,7 +924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1BFBE7A-0336-4BE8-AEEE-AAE0C7ACDBFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9553CA45-0A5A-4A93-A5CD-47CC65E58A65}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1538,7 +1514,7 @@
         <v>34</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -1553,7 +1529,7 @@
         <v>34</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1581,13 +1557,13 @@
         <v>367034</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="M14" s="7">
         <v>379</v>
@@ -1596,13 +1572,13 @@
         <v>367034</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1656,7 +1632,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1681,13 +1657,13 @@
         <v>1015</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -1696,13 +1672,13 @@
         <v>1015</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1730,10 +1706,10 @@
         <v>205659</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>18</v>
@@ -1745,10 +1721,10 @@
         <v>205659</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>18</v>
@@ -1805,7 +1781,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1830,13 +1806,13 @@
         <v>4122</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -1845,13 +1821,13 @@
         <v>4122</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1879,13 +1855,13 @@
         <v>274022</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="M20" s="7">
         <v>266</v>
@@ -1894,13 +1870,13 @@
         <v>274022</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1954,7 +1930,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1979,13 +1955,13 @@
         <v>4837</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>28</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -1994,13 +1970,13 @@
         <v>4837</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>28</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2028,10 +2004,10 @@
         <v>633382</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>30</v>
@@ -2043,10 +2019,10 @@
         <v>633382</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>30</v>
@@ -2103,7 +2079,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2128,13 +2104,13 @@
         <v>4376</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -2143,13 +2119,13 @@
         <v>4376</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2177,13 +2153,13 @@
         <v>779135</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M26" s="7">
         <v>741</v>
@@ -2192,13 +2168,13 @@
         <v>779135</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,13 +2253,13 @@
         <v>24088</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M28" s="7">
         <v>24</v>
@@ -2292,13 +2268,13 @@
         <v>24088</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2326,13 +2302,13 @@
         <v>3353252</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M29" s="7">
         <v>3270</v>
@@ -2341,13 +2317,13 @@
         <v>3353252</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,7 +2377,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2425,7 +2401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F04A6F-5C82-4EC5-B417-D7B8660415D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F49147-FC4E-4E57-A2F5-5B55A40DC72B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2442,7 +2418,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2699,13 +2675,13 @@
         <v>2971</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -2714,13 +2690,13 @@
         <v>2971</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2748,10 +2724,10 @@
         <v>516733</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>18</v>
@@ -2763,10 +2739,10 @@
         <v>516733</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>18</v>
@@ -2848,13 +2824,13 @@
         <v>3145</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>28</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -2863,13 +2839,13 @@
         <v>3145</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>28</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,10 +2873,10 @@
         <v>335714</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -2912,10 +2888,10 @@
         <v>335714</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>30</v>
@@ -2997,13 +2973,13 @@
         <v>4305</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -3012,13 +2988,13 @@
         <v>4305</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,31 +3019,31 @@
         <v>615</v>
       </c>
       <c r="I14" s="7">
-        <v>663020</v>
+        <v>663019</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>615</v>
       </c>
       <c r="N14" s="7">
-        <v>663020</v>
+        <v>663019</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,7 +3068,7 @@
         <v>619</v>
       </c>
       <c r="I15" s="7">
-        <v>667325</v>
+        <v>667324</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3107,7 +3083,7 @@
         <v>619</v>
       </c>
       <c r="N15" s="7">
-        <v>667325</v>
+        <v>667324</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3121,7 +3097,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3149,10 +3125,10 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3164,10 +3140,10 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,7 +3174,7 @@
         <v>18</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -3213,7 +3189,7 @@
         <v>18</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -3270,7 +3246,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3295,13 +3271,13 @@
         <v>1918</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -3310,13 +3286,13 @@
         <v>1918</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,10 +3320,10 @@
         <v>277222</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>18</v>
@@ -3359,10 +3335,10 @@
         <v>277222</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>18</v>
@@ -3419,7 +3395,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3444,13 +3420,13 @@
         <v>4000</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -3459,13 +3435,13 @@
         <v>4000</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,13 +3469,13 @@
         <v>687756</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="M23" s="7">
         <v>631</v>
@@ -3508,13 +3484,13 @@
         <v>687756</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,7 +3544,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3593,13 +3569,13 @@
         <v>5351</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -3608,13 +3584,13 @@
         <v>5351</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3645,10 +3621,10 @@
         <v>80</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M26" s="7">
         <v>749</v>
@@ -3660,10 +3636,10 @@
         <v>80</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,13 +3718,13 @@
         <v>21690</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M28" s="7">
         <v>19</v>
@@ -3757,13 +3733,13 @@
         <v>21690</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,13 +3767,13 @@
         <v>3514246</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="M29" s="7">
         <v>3258</v>
@@ -3806,13 +3782,13 @@
         <v>3514246</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3866,7 +3842,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3890,7 +3866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265A87AF-D6E2-4A7B-A038-C78C057123FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46B902D-896E-4BAA-97DB-35CA04018EB6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3907,7 +3883,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4027,13 +4003,13 @@
         <v>1014</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4042,13 +4018,13 @@
         <v>1014</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,10 +4052,10 @@
         <v>287689</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>18</v>
@@ -4091,10 +4067,10 @@
         <v>287689</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>18</v>
@@ -4328,10 +4304,10 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4343,10 +4319,10 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4377,7 +4353,7 @@
         <v>18</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -4392,7 +4368,7 @@
         <v>18</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -4477,7 +4453,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>113</v>
@@ -4492,7 +4468,7 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>113</v>
@@ -4598,7 +4574,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4623,7 +4599,7 @@
         <v>3657</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>115</v>
@@ -4638,7 +4614,7 @@
         <v>3657</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>115</v>
@@ -4672,7 +4648,7 @@
         <v>214930</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>117</v>
@@ -4687,7 +4663,7 @@
         <v>214930</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>117</v>
@@ -4747,7 +4723,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4775,7 +4751,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>119</v>
@@ -4790,7 +4766,7 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>119</v>
@@ -4896,7 +4872,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5045,7 +5021,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5225,7 +5201,7 @@
         <v>28</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="M28" s="7">
         <v>17</v>
@@ -5240,7 +5216,7 @@
         <v>28</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,10 +5244,10 @@
         <v>3526454</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>30</v>
@@ -5283,10 +5259,10 @@
         <v>3526454</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>30</v>
@@ -5343,7 +5319,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -5367,7 +5343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE364EA-E9D7-4351-BCD8-B92652D64D05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0AA05D-282D-40E2-BFA6-24391248E870}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5384,7 +5360,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5507,10 +5483,10 @@
         <v>113</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -5522,10 +5498,10 @@
         <v>113</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,10 +5532,10 @@
         <v>114</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>535</v>
@@ -5571,10 +5547,10 @@
         <v>114</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5653,13 +5629,13 @@
         <v>2463</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -5668,13 +5644,13 @@
         <v>2463</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5702,13 +5678,13 @@
         <v>549151</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M8" s="7">
         <v>709</v>
@@ -5717,13 +5693,13 @@
         <v>549151</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5805,7 +5781,7 @@
         <v>131</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>29</v>
@@ -5820,7 +5796,7 @@
         <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>29</v>
@@ -5851,13 +5827,13 @@
         <v>370724</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>532</v>
@@ -5866,13 +5842,13 @@
         <v>370724</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5951,7 +5927,7 @@
         <v>673</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>13</v>
@@ -5966,7 +5942,7 @@
         <v>673</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>13</v>
@@ -6000,7 +5976,7 @@
         <v>427210</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>16</v>
@@ -6015,7 +5991,7 @@
         <v>427210</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>16</v>
@@ -6075,7 +6051,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6100,13 +6076,13 @@
         <v>852</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -6115,13 +6091,13 @@
         <v>852</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6149,10 +6125,10 @@
         <v>230660</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>18</v>
@@ -6164,10 +6140,10 @@
         <v>230660</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>18</v>
@@ -6224,7 +6200,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6249,13 +6225,13 @@
         <v>663</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -6264,13 +6240,13 @@
         <v>663</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6298,10 +6274,10 @@
         <v>274959</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>18</v>
@@ -6313,10 +6289,10 @@
         <v>274959</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>18</v>
@@ -6373,7 +6349,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6398,13 +6374,13 @@
         <v>4650</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>56</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -6413,13 +6389,13 @@
         <v>4650</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>56</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6447,13 +6423,13 @@
         <v>799393</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>157</v>
+        <v>60</v>
       </c>
       <c r="M23" s="7">
         <v>952</v>
@@ -6462,13 +6438,13 @@
         <v>799393</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>157</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6522,7 +6498,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6547,13 +6523,13 @@
         <v>4357</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -6562,13 +6538,13 @@
         <v>4357</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6596,13 +6572,13 @@
         <v>860674</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="M26" s="7">
         <v>1054</v>
@@ -6611,13 +6587,13 @@
         <v>860674</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6696,13 +6672,13 @@
         <v>16989</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>28</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="M28" s="7">
         <v>27</v>
@@ -6711,13 +6687,13 @@
         <v>16989</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>28</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6745,10 +6721,10 @@
         <v>3782733</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>30</v>
@@ -6760,10 +6736,10 @@
         <v>3782733</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>30</v>
@@ -6820,7 +6796,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A17-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A17-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92A8DAD4-5490-4475-8A89-CF505E7D1787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A3C8EA6-9B3E-4CA2-972E-59155B95AA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CE377ABC-A991-4247-99CC-4474DF1358C2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{972D1666-839D-48D3-924A-DE7665EF3B87}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="156">
   <si>
     <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2007 (Tasa respuesta: 50,59%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -83,7 +83,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,62%</t>
+    <t>2,72%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,7 +92,7 @@
     <t>99,22%</t>
   </si>
   <si>
-    <t>97,38%</t>
+    <t>97,28%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -110,13 +110,13 @@
     <t>0,19%</t>
   </si>
   <si>
-    <t>1,84%</t>
+    <t>1,67%</t>
   </si>
   <si>
     <t>99,38%</t>
   </si>
   <si>
-    <t>98,16%</t>
+    <t>98,33%</t>
   </si>
   <si>
     <t>99,81%</t>
@@ -128,13 +128,13 @@
     <t>0,3%</t>
   </si>
   <si>
-    <t>1,5%</t>
+    <t>2,04%</t>
   </si>
   <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>98,5%</t>
+    <t>97,96%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -143,13 +143,19 @@
     <t>0,96%</t>
   </si>
   <si>
-    <t>0,23%</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
   </si>
   <si>
     <t>99,04%</t>
   </si>
   <si>
-    <t>99,77%</t>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -158,13 +164,13 @@
     <t>0,49%</t>
   </si>
   <si>
-    <t>3,2%</t>
+    <t>2,93%</t>
   </si>
   <si>
     <t>99,51%</t>
   </si>
   <si>
-    <t>96,8%</t>
+    <t>97,07%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -176,13 +182,13 @@
     <t>0,37%</t>
   </si>
   <si>
-    <t>3,58%</t>
+    <t>3,85%</t>
   </si>
   <si>
     <t>98,52%</t>
   </si>
   <si>
-    <t>96,42%</t>
+    <t>96,15%</t>
   </si>
   <si>
     <t>99,63%</t>
@@ -194,13 +200,13 @@
     <t>0,76%</t>
   </si>
   <si>
-    <t>1,67%</t>
+    <t>1,7%</t>
   </si>
   <si>
     <t>99,24%</t>
   </si>
   <si>
-    <t>98,33%</t>
+    <t>98,3%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -209,37 +215,37 @@
     <t>0,56%</t>
   </si>
   <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
   </si>
   <si>
     <t>99,44%</t>
   </si>
   <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
   </si>
   <si>
     <t>99,29%</t>
   </si>
   <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -263,13 +269,13 @@
     <t>0,93%</t>
   </si>
   <si>
-    <t>2,52%</t>
+    <t>2,48%</t>
   </si>
   <si>
     <t>99,07%</t>
   </si>
   <si>
-    <t>97,48%</t>
+    <t>97,52%</t>
   </si>
   <si>
     <t>0,65%</t>
@@ -278,13 +284,13 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,55%</t>
+    <t>1,6%</t>
   </si>
   <si>
     <t>99,35%</t>
   </si>
   <si>
-    <t>98,45%</t>
+    <t>98,4%</t>
   </si>
   <si>
     <t>99,83%</t>
@@ -302,13 +308,13 @@
     <t>0,69%</t>
   </si>
   <si>
-    <t>1,74%</t>
+    <t>2,09%</t>
   </si>
   <si>
     <t>99,31%</t>
   </si>
   <si>
-    <t>98,26%</t>
+    <t>97,91%</t>
   </si>
   <si>
     <t>0,58%</t>
@@ -317,40 +323,46 @@
     <t>0,15%</t>
   </si>
   <si>
-    <t>1,6%</t>
+    <t>1,75%</t>
   </si>
   <si>
     <t>99,42%</t>
   </si>
   <si>
-    <t>98,4%</t>
+    <t>98,25%</t>
   </si>
   <si>
     <t>99,85%</t>
   </si>
   <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
   </si>
   <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>0,97%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
   </si>
   <si>
     <t>99,39%</t>
   </si>
   <si>
-    <t>99,03%</t>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
   </si>
   <si>
     <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2016 (Tasa respuesta: 50,81%)</t>
@@ -368,15 +380,9 @@
     <t>0,21%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>97,93%</t>
-  </si>
-  <si>
     <t>99,79%</t>
   </si>
   <si>
@@ -386,133 +392,121 @@
     <t>99,47%</t>
   </si>
   <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
+    <t>1,08%</t>
   </si>
   <si>
     <t>99,6%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
   </si>
   <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
   </si>
   <si>
     <t>99,69%</t>
   </si>
   <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
     <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2023 (Tasa respuesta: 61,24%)</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
     <t>99,84%</t>
   </si>
   <si>
     <t>0,45%</t>
   </si>
   <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
+    <t>1,32%</t>
   </si>
   <si>
     <t>99,55%</t>
   </si>
   <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
   </si>
   <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>1,25%</t>
+    <t>1,23%</t>
   </si>
   <si>
     <t>99,76%</t>
   </si>
   <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
   </si>
 </sst>
 </file>
@@ -924,7 +918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9553CA45-0A5A-4A93-A5CD-47CC65E58A65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3FC4B0A-F9A1-4F10-9142-F64333EC4F9B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1514,7 +1508,7 @@
         <v>34</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -1529,7 +1523,7 @@
         <v>34</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1557,13 +1551,13 @@
         <v>367034</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M14" s="7">
         <v>379</v>
@@ -1572,13 +1566,13 @@
         <v>367034</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1632,7 +1626,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1657,13 +1651,13 @@
         <v>1015</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -1672,13 +1666,13 @@
         <v>1015</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1706,10 +1700,10 @@
         <v>205659</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>18</v>
@@ -1721,10 +1715,10 @@
         <v>205659</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>18</v>
@@ -1781,7 +1775,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1806,13 +1800,13 @@
         <v>4122</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -1821,13 +1815,13 @@
         <v>4122</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1855,13 +1849,13 @@
         <v>274022</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M20" s="7">
         <v>266</v>
@@ -1870,13 +1864,13 @@
         <v>274022</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1930,7 +1924,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1955,13 +1949,13 @@
         <v>4837</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>28</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -1970,13 +1964,13 @@
         <v>4837</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>28</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2004,10 +1998,10 @@
         <v>633382</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>30</v>
@@ -2019,10 +2013,10 @@
         <v>633382</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>30</v>
@@ -2079,7 +2073,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2104,13 +2098,13 @@
         <v>4376</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -2119,13 +2113,13 @@
         <v>4376</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2153,13 +2147,13 @@
         <v>779135</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M26" s="7">
         <v>741</v>
@@ -2168,13 +2162,13 @@
         <v>779135</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2253,13 +2247,13 @@
         <v>24088</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M28" s="7">
         <v>24</v>
@@ -2268,13 +2262,13 @@
         <v>24088</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2302,13 +2296,13 @@
         <v>3353252</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M29" s="7">
         <v>3270</v>
@@ -2317,13 +2311,13 @@
         <v>3353252</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,7 +2371,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2401,7 +2395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F49147-FC4E-4E57-A2F5-5B55A40DC72B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECF8D96-404F-4B10-808F-8F5EAA8FEA57}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2418,7 +2412,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2675,13 +2669,13 @@
         <v>2971</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -2690,13 +2684,13 @@
         <v>2971</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2724,10 +2718,10 @@
         <v>516733</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>18</v>
@@ -2739,10 +2733,10 @@
         <v>516733</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>18</v>
@@ -2824,13 +2818,13 @@
         <v>3145</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -2839,13 +2833,13 @@
         <v>3145</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,13 +2867,13 @@
         <v>335714</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M11" s="7">
         <v>312</v>
@@ -2888,13 +2882,13 @@
         <v>335714</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2973,13 +2967,13 @@
         <v>4305</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -2988,13 +2982,13 @@
         <v>4305</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,13 +3016,13 @@
         <v>663019</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>615</v>
@@ -3037,13 +3031,13 @@
         <v>663019</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,7 +3091,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3125,10 +3119,10 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3140,10 +3134,10 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3174,7 +3168,7 @@
         <v>18</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -3189,7 +3183,7 @@
         <v>18</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -3246,7 +3240,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3271,13 +3265,13 @@
         <v>1918</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -3286,13 +3280,13 @@
         <v>1918</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3320,10 +3314,10 @@
         <v>277222</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>18</v>
@@ -3335,10 +3329,10 @@
         <v>277222</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>18</v>
@@ -3395,7 +3389,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3420,13 +3414,13 @@
         <v>4000</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -3435,13 +3429,13 @@
         <v>4000</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,13 +3463,13 @@
         <v>687756</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M23" s="7">
         <v>631</v>
@@ -3484,13 +3478,13 @@
         <v>687756</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,7 +3538,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3569,13 +3563,13 @@
         <v>5351</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -3584,13 +3578,13 @@
         <v>5351</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,13 +3612,13 @@
         <v>815203</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M26" s="7">
         <v>749</v>
@@ -3633,13 +3627,13 @@
         <v>815203</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3718,13 +3712,13 @@
         <v>21690</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M28" s="7">
         <v>19</v>
@@ -3733,13 +3727,13 @@
         <v>21690</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,13 +3761,13 @@
         <v>3514246</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="M29" s="7">
         <v>3258</v>
@@ -3782,13 +3776,13 @@
         <v>3514246</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,7 +3836,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3866,7 +3860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46B902D-896E-4BAA-97DB-35CA04018EB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E49E5FD-8837-4FDF-801D-0F2B8029BD7A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3883,7 +3877,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4003,13 +3997,13 @@
         <v>1014</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4018,13 +4012,13 @@
         <v>1014</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,10 +4046,10 @@
         <v>287689</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>18</v>
@@ -4067,10 +4061,10 @@
         <v>287689</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>18</v>
@@ -4152,13 +4146,13 @@
         <v>4244</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -4167,13 +4161,13 @@
         <v>4244</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4195,13 @@
         <v>518840</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M8" s="7">
         <v>480</v>
@@ -4216,13 +4210,13 @@
         <v>518840</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4304,10 +4298,10 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4319,10 +4313,10 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4353,7 +4347,7 @@
         <v>18</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -4368,7 +4362,7 @@
         <v>18</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -4453,10 +4447,10 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4468,10 +4462,10 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4502,7 +4496,7 @@
         <v>18</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -4517,7 +4511,7 @@
         <v>18</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -4574,7 +4568,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4599,13 +4593,13 @@
         <v>3657</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -4614,13 +4608,13 @@
         <v>3657</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,13 +4642,13 @@
         <v>214930</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>219</v>
@@ -4663,13 +4657,13 @@
         <v>214930</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4723,7 +4717,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4751,10 +4745,10 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4766,10 +4760,10 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4800,7 +4794,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -4815,7 +4809,7 @@
         <v>18</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -4872,7 +4866,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4897,13 +4891,13 @@
         <v>5869</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -4912,13 +4906,13 @@
         <v>5869</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4946,13 +4940,13 @@
         <v>685425</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M23" s="7">
         <v>641</v>
@@ -4961,13 +4955,13 @@
         <v>685425</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5021,7 +5015,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5046,13 +5040,13 @@
         <v>3304</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -5061,13 +5055,13 @@
         <v>3304</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,13 +5089,13 @@
         <v>822863</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="M26" s="7">
         <v>752</v>
@@ -5110,13 +5104,13 @@
         <v>822863</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5195,13 +5189,13 @@
         <v>18088</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="M28" s="7">
         <v>17</v>
@@ -5210,13 +5204,13 @@
         <v>18088</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5244,13 +5238,13 @@
         <v>3526454</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="M29" s="7">
         <v>3321</v>
@@ -5259,13 +5253,13 @@
         <v>3526454</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,7 +5313,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -5343,7 +5337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0AA05D-282D-40E2-BFA6-24391248E870}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C780FCFA-63A5-456F-9647-92CBDCAD808F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5360,7 +5354,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5480,13 +5474,13 @@
         <v>1440</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -5495,13 +5489,13 @@
         <v>1440</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,13 +5523,13 @@
         <v>269963</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>535</v>
@@ -5544,13 +5538,13 @@
         <v>269963</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5629,13 +5623,13 @@
         <v>2463</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -5644,13 +5638,13 @@
         <v>2463</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5678,13 +5672,13 @@
         <v>549151</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="M8" s="7">
         <v>709</v>
@@ -5693,13 +5687,13 @@
         <v>549151</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5778,13 +5772,13 @@
         <v>1889</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -5793,13 +5787,13 @@
         <v>1889</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5827,13 +5821,13 @@
         <v>370724</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M11" s="7">
         <v>532</v>
@@ -5842,13 +5836,13 @@
         <v>370724</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5927,13 +5921,13 @@
         <v>673</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -5942,13 +5936,13 @@
         <v>673</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5976,10 +5970,10 @@
         <v>427210</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>18</v>
@@ -5991,10 +5985,10 @@
         <v>427210</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>18</v>
@@ -6051,7 +6045,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6076,13 +6070,13 @@
         <v>852</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -6091,13 +6085,13 @@
         <v>852</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,7 +6119,7 @@
         <v>230660</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>145</v>
@@ -6140,7 +6134,7 @@
         <v>230660</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>145</v>
@@ -6200,7 +6194,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6225,13 +6219,13 @@
         <v>663</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -6240,13 +6234,13 @@
         <v>663</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,10 +6268,10 @@
         <v>274959</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>18</v>
@@ -6289,10 +6283,10 @@
         <v>274959</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>18</v>
@@ -6349,7 +6343,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6374,13 +6368,13 @@
         <v>4650</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -6389,13 +6383,13 @@
         <v>4650</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6423,13 +6417,13 @@
         <v>799393</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="M23" s="7">
         <v>952</v>
@@ -6438,13 +6432,13 @@
         <v>799393</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6498,7 +6492,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6523,13 +6517,13 @@
         <v>4357</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>153</v>
+        <v>22</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -6538,13 +6532,13 @@
         <v>4357</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>153</v>
+        <v>22</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6572,13 +6566,13 @@
         <v>860674</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>68</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>155</v>
+        <v>26</v>
       </c>
       <c r="M26" s="7">
         <v>1054</v>
@@ -6587,13 +6581,13 @@
         <v>860674</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>154</v>
+        <v>68</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>155</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6672,13 +6666,13 @@
         <v>16989</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>28</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M28" s="7">
         <v>27</v>
@@ -6687,13 +6681,13 @@
         <v>16989</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>28</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6721,10 +6715,10 @@
         <v>3782733</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>30</v>
@@ -6736,10 +6730,10 @@
         <v>3782733</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>30</v>
@@ -6796,7 +6790,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A17-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A17-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A3C8EA6-9B3E-4CA2-972E-59155B95AA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4495C9A5-0372-4AC7-B399-0457B4ACC3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{972D1666-839D-48D3-924A-DE7665EF3B87}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EAE7B36B-D373-4144-BD7B-92020E9F1D2F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="172">
   <si>
     <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2007 (Tasa respuesta: 50,59%)</t>
   </si>
@@ -254,6 +254,18 @@
     <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2012 (Tasa respuesta: 50,36%)</t>
   </si>
   <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
     <t>0,57%</t>
   </si>
   <si>
@@ -278,69 +290,75 @@
     <t>97,52%</t>
   </si>
   <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
   </si>
   <si>
     <t>99,35%</t>
   </si>
   <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
     <t>98,57%</t>
   </si>
   <si>
@@ -428,15 +446,9 @@
     <t>99,67%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
     <t>1,08%</t>
   </si>
   <si>
-    <t>99,6%</t>
-  </si>
-  <si>
     <t>98,92%</t>
   </si>
   <si>
@@ -461,9 +473,21 @@
     <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2023 (Tasa respuesta: 61,24%)</t>
   </si>
   <si>
+    <t>0,52%</t>
+  </si>
+  <si>
     <t>0,16%</t>
   </si>
   <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
     <t>99,84%</t>
   </si>
   <si>
@@ -479,10 +503,16 @@
     <t>98,68%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
   </si>
   <si>
     <t>0,24%</t>
@@ -497,16 +527,34 @@
     <t>98,77%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
   </si>
 </sst>
 </file>
@@ -918,7 +966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3FC4B0A-F9A1-4F10-9142-F64333EC4F9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149C5C51-BA02-463C-BA55-2D7A4BCC791C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2293,7 +2341,7 @@
         <v>3270</v>
       </c>
       <c r="I29" s="7">
-        <v>3353252</v>
+        <v>3353251</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>66</v>
@@ -2308,7 +2356,7 @@
         <v>3270</v>
       </c>
       <c r="N29" s="7">
-        <v>3353252</v>
+        <v>3353251</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>66</v>
@@ -2342,7 +2390,7 @@
         <v>3294</v>
       </c>
       <c r="I30" s="7">
-        <v>3377340</v>
+        <v>3377339</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>19</v>
@@ -2357,7 +2405,7 @@
         <v>3294</v>
       </c>
       <c r="N30" s="7">
-        <v>3377340</v>
+        <v>3377339</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
@@ -2395,7 +2443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECF8D96-404F-4B10-808F-8F5EAA8FEA57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{798EE867-920D-42D5-8E5E-C74ACD0F7FC8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2526,30 +2574,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1125</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1125</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,30 +2623,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>248</v>
+      </c>
+      <c r="I5" s="7">
+        <v>278225</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>248</v>
+      </c>
+      <c r="N5" s="7">
+        <v>278225</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,30 +2672,34 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>249</v>
+      </c>
+      <c r="I6" s="7">
+        <v>279350</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>249</v>
+      </c>
+      <c r="N6" s="7">
+        <v>279350</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,13 +2729,13 @@
         <v>2971</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -2684,13 +2744,13 @@
         <v>2971</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2718,10 +2778,10 @@
         <v>516733</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>18</v>
@@ -2733,10 +2793,10 @@
         <v>516733</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>18</v>
@@ -2818,13 +2878,13 @@
         <v>3145</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -2833,13 +2893,13 @@
         <v>3145</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,10 +2927,10 @@
         <v>335714</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>18</v>
@@ -2882,10 +2942,10 @@
         <v>335714</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>18</v>
@@ -2961,34 +3021,34 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>4305</v>
+        <v>3180</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M13" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>4305</v>
+        <v>3180</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,34 +3070,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>615</v>
+        <v>367</v>
       </c>
       <c r="I14" s="7">
-        <v>663019</v>
+        <v>384794</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M14" s="7">
-        <v>615</v>
+        <v>367</v>
       </c>
       <c r="N14" s="7">
-        <v>663019</v>
+        <v>384794</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3059,10 +3119,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>619</v>
+        <v>370</v>
       </c>
       <c r="I15" s="7">
-        <v>667324</v>
+        <v>387974</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3074,10 +3134,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>619</v>
+        <v>370</v>
       </c>
       <c r="N15" s="7">
-        <v>667324</v>
+        <v>387974</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3119,10 +3179,10 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3134,10 +3194,10 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3168,7 +3228,7 @@
         <v>18</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -3183,7 +3243,7 @@
         <v>18</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -3265,13 +3325,13 @@
         <v>1918</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -3280,13 +3340,13 @@
         <v>1918</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,10 +3374,10 @@
         <v>277222</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>18</v>
@@ -3329,10 +3389,10 @@
         <v>277222</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>18</v>
@@ -3414,13 +3474,13 @@
         <v>4000</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -3429,13 +3489,13 @@
         <v>4000</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,31 +3520,31 @@
         <v>631</v>
       </c>
       <c r="I23" s="7">
-        <v>687756</v>
+        <v>687755</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M23" s="7">
         <v>631</v>
       </c>
       <c r="N23" s="7">
-        <v>687756</v>
+        <v>687755</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,7 +3569,7 @@
         <v>634</v>
       </c>
       <c r="I24" s="7">
-        <v>691756</v>
+        <v>691755</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>19</v>
@@ -3524,7 +3584,7 @@
         <v>634</v>
       </c>
       <c r="N24" s="7">
-        <v>691756</v>
+        <v>691755</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -3563,13 +3623,13 @@
         <v>5351</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -3578,13 +3638,13 @@
         <v>5351</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,13 +3672,13 @@
         <v>815203</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M26" s="7">
         <v>749</v>
@@ -3627,13 +3687,13 @@
         <v>815203</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3712,13 +3772,13 @@
         <v>21690</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M28" s="7">
         <v>19</v>
@@ -3727,13 +3787,13 @@
         <v>21690</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3761,13 +3821,13 @@
         <v>3514246</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="M29" s="7">
         <v>3258</v>
@@ -3776,13 +3836,13 @@
         <v>3514246</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3860,7 +3920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E49E5FD-8837-4FDF-801D-0F2B8029BD7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA915B46-55B2-4D52-BDEE-6B5C6B9AE249}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3877,7 +3937,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3997,13 +4057,13 @@
         <v>1014</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4012,13 +4072,13 @@
         <v>1014</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,10 +4106,10 @@
         <v>287689</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>18</v>
@@ -4061,10 +4121,10 @@
         <v>287689</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>18</v>
@@ -4146,13 +4206,13 @@
         <v>4244</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -4161,13 +4221,13 @@
         <v>4244</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4255,13 @@
         <v>518840</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="M8" s="7">
         <v>480</v>
@@ -4210,13 +4270,13 @@
         <v>518840</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,10 +4358,10 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4313,10 +4373,10 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4347,7 +4407,7 @@
         <v>18</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -4362,7 +4422,7 @@
         <v>18</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -4447,10 +4507,10 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4462,10 +4522,10 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4496,7 +4556,7 @@
         <v>18</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -4511,7 +4571,7 @@
         <v>18</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -4596,10 +4656,10 @@
         <v>23</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -4611,10 +4671,10 @@
         <v>23</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4645,10 +4705,10 @@
         <v>25</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="M17" s="7">
         <v>219</v>
@@ -4660,10 +4720,10 @@
         <v>25</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4745,10 +4805,10 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4760,10 +4820,10 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4794,7 +4854,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -4809,7 +4869,7 @@
         <v>18</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -4891,13 +4951,13 @@
         <v>5869</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -4906,13 +4966,13 @@
         <v>5869</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4940,13 +5000,13 @@
         <v>685425</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="M23" s="7">
         <v>641</v>
@@ -4955,13 +5015,13 @@
         <v>685425</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,13 +5100,13 @@
         <v>3304</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>58</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -5055,13 +5115,13 @@
         <v>3304</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>58</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5089,10 +5149,10 @@
         <v>822863</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>62</v>
@@ -5104,10 +5164,10 @@
         <v>822863</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>62</v>
@@ -5189,13 +5249,13 @@
         <v>18088</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M28" s="7">
         <v>17</v>
@@ -5204,13 +5264,13 @@
         <v>18088</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,13 +5298,13 @@
         <v>3526454</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M29" s="7">
         <v>3321</v>
@@ -5253,13 +5313,13 @@
         <v>3526454</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,7 +5397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C780FCFA-63A5-456F-9647-92CBDCAD808F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B2A993-83EE-49F6-B8A1-680B13787B3B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5354,7 +5414,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5471,31 +5531,31 @@
         <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>1440</v>
+        <v>1497</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>1440</v>
+        <v>1497</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5520,31 +5580,31 @@
         <v>535</v>
       </c>
       <c r="I5" s="7">
-        <v>269963</v>
+        <v>288138</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="M5" s="7">
         <v>535</v>
       </c>
       <c r="N5" s="7">
-        <v>269963</v>
+        <v>288138</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5569,7 +5629,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -5584,7 +5644,7 @@
         <v>538</v>
       </c>
       <c r="N6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -5620,31 +5680,31 @@
         <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>2463</v>
+        <v>2304</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>2463</v>
+        <v>2304</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5669,31 +5729,31 @@
         <v>709</v>
       </c>
       <c r="I8" s="7">
-        <v>549151</v>
+        <v>509915</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M8" s="7">
         <v>709</v>
       </c>
       <c r="N8" s="7">
-        <v>549151</v>
+        <v>509915</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5718,7 +5778,7 @@
         <v>713</v>
       </c>
       <c r="I9" s="7">
-        <v>551614</v>
+        <v>512219</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -5733,7 +5793,7 @@
         <v>713</v>
       </c>
       <c r="N9" s="7">
-        <v>551614</v>
+        <v>512219</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -5769,31 +5829,31 @@
         <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>1889</v>
+        <v>1773</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>1889</v>
+        <v>1773</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,31 +5878,31 @@
         <v>532</v>
       </c>
       <c r="I11" s="7">
-        <v>370724</v>
+        <v>346721</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="M11" s="7">
         <v>532</v>
       </c>
       <c r="N11" s="7">
-        <v>370724</v>
+        <v>346721</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,7 +5927,7 @@
         <v>535</v>
       </c>
       <c r="I12" s="7">
-        <v>372613</v>
+        <v>348494</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -5882,7 +5942,7 @@
         <v>535</v>
       </c>
       <c r="N12" s="7">
-        <v>372613</v>
+        <v>348494</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -5918,31 +5978,31 @@
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>673</v>
+        <v>628</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>673</v>
+        <v>628</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5967,13 +6027,13 @@
         <v>597</v>
       </c>
       <c r="I14" s="7">
-        <v>427210</v>
+        <v>474462</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>18</v>
@@ -5982,13 +6042,13 @@
         <v>597</v>
       </c>
       <c r="N14" s="7">
-        <v>427210</v>
+        <v>474462</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>18</v>
@@ -6016,7 +6076,7 @@
         <v>598</v>
       </c>
       <c r="I15" s="7">
-        <v>427883</v>
+        <v>475090</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -6031,7 +6091,7 @@
         <v>598</v>
       </c>
       <c r="N15" s="7">
-        <v>427883</v>
+        <v>475090</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -6067,7 +6127,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>852</v>
+        <v>774</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>46</v>
@@ -6076,13 +6136,13 @@
         <v>13</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>852</v>
+        <v>774</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>46</v>
@@ -6091,7 +6151,7 @@
         <v>13</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6116,13 +6176,13 @@
         <v>489</v>
       </c>
       <c r="I17" s="7">
-        <v>230660</v>
+        <v>207525</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>50</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>18</v>
@@ -6131,13 +6191,13 @@
         <v>489</v>
       </c>
       <c r="N17" s="7">
-        <v>230660</v>
+        <v>207525</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>50</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>18</v>
@@ -6165,7 +6225,7 @@
         <v>491</v>
       </c>
       <c r="I18" s="7">
-        <v>231512</v>
+        <v>208299</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -6180,7 +6240,7 @@
         <v>491</v>
       </c>
       <c r="N18" s="7">
-        <v>231512</v>
+        <v>208299</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -6216,31 +6276,31 @@
         <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>663</v>
+        <v>617</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>663</v>
+        <v>617</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6265,13 +6325,13 @@
         <v>459</v>
       </c>
       <c r="I20" s="7">
-        <v>274959</v>
+        <v>256439</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>18</v>
@@ -6280,13 +6340,13 @@
         <v>459</v>
       </c>
       <c r="N20" s="7">
-        <v>274959</v>
+        <v>256439</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>18</v>
@@ -6314,7 +6374,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -6329,7 +6389,7 @@
         <v>460</v>
       </c>
       <c r="N21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -6365,31 +6425,31 @@
         <v>7</v>
       </c>
       <c r="I22" s="7">
-        <v>4650</v>
+        <v>4171</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
       </c>
       <c r="N22" s="7">
-        <v>4650</v>
+        <v>4171</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6414,31 +6474,31 @@
         <v>952</v>
       </c>
       <c r="I23" s="7">
-        <v>799393</v>
+        <v>844931</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="M23" s="7">
         <v>952</v>
       </c>
       <c r="N23" s="7">
-        <v>799393</v>
+        <v>844931</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6463,7 +6523,7 @@
         <v>959</v>
       </c>
       <c r="I24" s="7">
-        <v>804043</v>
+        <v>849102</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>19</v>
@@ -6478,7 +6538,7 @@
         <v>959</v>
       </c>
       <c r="N24" s="7">
-        <v>804043</v>
+        <v>849102</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -6514,31 +6574,31 @@
         <v>6</v>
       </c>
       <c r="I25" s="7">
-        <v>4357</v>
+        <v>3687</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
       </c>
       <c r="N25" s="7">
-        <v>4357</v>
+        <v>3687</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>65</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6563,31 +6623,31 @@
         <v>1054</v>
       </c>
       <c r="I26" s="7">
-        <v>860674</v>
+        <v>711164</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="M26" s="7">
         <v>1054</v>
       </c>
       <c r="N26" s="7">
-        <v>860674</v>
+        <v>711164</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>26</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6612,7 +6672,7 @@
         <v>1060</v>
       </c>
       <c r="I27" s="7">
-        <v>865031</v>
+        <v>714851</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>19</v>
@@ -6627,7 +6687,7 @@
         <v>1060</v>
       </c>
       <c r="N27" s="7">
-        <v>865031</v>
+        <v>714851</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>
@@ -6663,31 +6723,31 @@
         <v>27</v>
       </c>
       <c r="I28" s="7">
-        <v>16989</v>
+        <v>15451</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="M28" s="7">
         <v>27</v>
       </c>
       <c r="N28" s="7">
-        <v>16989</v>
+        <v>15451</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,31 +6772,31 @@
         <v>5327</v>
       </c>
       <c r="I29" s="7">
-        <v>3782733</v>
+        <v>3639294</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>30</v>
+        <v>171</v>
       </c>
       <c r="M29" s="7">
         <v>5327</v>
       </c>
       <c r="N29" s="7">
-        <v>3782733</v>
+        <v>3639294</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>30</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6761,7 +6821,7 @@
         <v>5354</v>
       </c>
       <c r="I30" s="7">
-        <v>3799722</v>
+        <v>3654745</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>19</v>
@@ -6776,7 +6836,7 @@
         <v>5354</v>
       </c>
       <c r="N30" s="7">
-        <v>3799722</v>
+        <v>3654745</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
